--- a/Datatable.xlsx
+++ b/Datatable.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB3062D-7629-4C22-B5EF-B2985A91E135}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94F843-D35F-4FB3-8C58-07141F867E3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RegisterUserData" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralUserData" sheetId="3" r:id="rId1"/>
+    <sheet name="RegisterUserData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>userName</t>
   </si>
@@ -32,6 +33,54 @@
   </si>
   <si>
     <t>pass@123</t>
+  </si>
+  <si>
+    <t>Module Admin</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>pwcadmin1</t>
+  </si>
+  <si>
+    <t>role_1</t>
+  </si>
+  <si>
+    <t>role_2</t>
+  </si>
+  <si>
+    <t>role_3</t>
+  </si>
+  <si>
+    <t>compliance_Location</t>
+  </si>
+  <si>
+    <t>compliance_BU</t>
+  </si>
+  <si>
+    <t>compliance_Department</t>
+  </si>
+  <si>
+    <t>compliance_Tilte</t>
+  </si>
+  <si>
+    <t>compliance_Description</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_1</t>
   </si>
 </sst>
 </file>
@@ -55,15 +104,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,14 +126,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -359,24 +433,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -388,10 +462,91 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Datatable.xlsx
+++ b/Datatable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE94F843-D35F-4FB3-8C58-07141F867E3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A8E29E57-7F21-48BC-8101-9D2827235857}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneralUserData" sheetId="3" r:id="rId1"/>
-    <sheet name="RegisterUserData" sheetId="1" r:id="rId2"/>
+    <sheet name="GeneralUserData" r:id="rId1" sheetId="3"/>
+    <sheet name="RegisterUserData" r:id="rId2" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>userName</t>
   </si>
@@ -80,13 +80,98 @@
     <t>Administration</t>
   </si>
   <si>
-    <t>Test Compliance Automation_1</t>
+    <t>Test Automation Description</t>
+  </si>
+  <si>
+    <t>compliance_type</t>
+  </si>
+  <si>
+    <t>Filing</t>
+  </si>
+  <si>
+    <t>law_type_master</t>
+  </si>
+  <si>
+    <t>Corporate Laws</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Para 4</t>
+  </si>
+  <si>
+    <t>primary_legislation</t>
+  </si>
+  <si>
+    <t>CGST Act</t>
+  </si>
+  <si>
+    <t>internal_compliance_reference</t>
+  </si>
+  <si>
+    <t>Test Reference</t>
+  </si>
+  <si>
+    <t>aceptability</t>
+  </si>
+  <si>
+    <t>Test Acceptability</t>
+  </si>
+  <si>
+    <t>helping_hand</t>
+  </si>
+  <si>
+    <t>Test helping hand</t>
+  </si>
+  <si>
+    <t>due_date_as_per_law</t>
+  </si>
+  <si>
+    <t>penalty_terms</t>
+  </si>
+  <si>
+    <t>prioriry</t>
+  </si>
+  <si>
+    <t>assessment_frequency</t>
+  </si>
+  <si>
+    <t>Chitramit Chatterjee</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Satyabrata Sarkar</t>
+  </si>
+  <si>
+    <t>One time</t>
+  </si>
+  <si>
+    <t>chitramit1</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_7</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_8</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,23 +228,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -176,10 +262,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -214,7 +300,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,7 +335,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -343,21 +429,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +460,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -426,24 +512,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,34 +556,55 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
+    <hyperlink r:id="rId1" ref="B2" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
+    <hyperlink r:id="rId2" ref="B3" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
+    <hyperlink r:id="rId3" ref="B4" xr:uid="{CC9AAD5E-1F86-4392-B490-315E4F6803F9}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="29.19140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -522,8 +629,47 @@
       <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -543,10 +689,52 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4">
+        <v>43934</v>
+      </c>
+      <c r="Q2">
+        <v>10000</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Datatable.xlsx
+++ b/Datatable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{A8E29E57-7F21-48BC-8101-9D2827235857}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A32D0E0B-57B9-432C-91A5-0E0258F5B732}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>userName</t>
   </si>
@@ -152,19 +152,43 @@
     <t>Satyabrata Sarkar</t>
   </si>
   <si>
-    <t>One time</t>
-  </si>
-  <si>
     <t>chitramit1</t>
   </si>
   <si>
-    <t>Test Compliance Automation_7</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_8</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_9</t>
+    <t>remediation_title</t>
+  </si>
+  <si>
+    <t>Test Remediation_3</t>
+  </si>
+  <si>
+    <t>satyabrata1</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_15</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_16</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_17</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_18</t>
+  </si>
+  <si>
+    <t>Test Remediation_4</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_19</t>
+  </si>
+  <si>
+    <t>Test Remediation_5</t>
+  </si>
+  <si>
+    <t>Test Compliance Automation_20</t>
   </si>
 </sst>
 </file>
@@ -520,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,9 +582,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -569,6 +601,7 @@
     <hyperlink r:id="rId1" ref="B2" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
     <hyperlink r:id="rId2" ref="B3" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
     <hyperlink r:id="rId3" ref="B4" xr:uid="{CC9AAD5E-1F86-4392-B490-315E4F6803F9}"/>
+    <hyperlink r:id="rId4" ref="B5" xr:uid="{AFCDA0B5-BDCE-4639-AC0D-85D633698000}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -576,10 +609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +621,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="29.19140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.3046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
@@ -602,9 +635,10 @@
     <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.921875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -668,8 +702,11 @@
       <c r="U1" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -689,7 +726,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -725,13 +762,16 @@
         <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
         <v>38</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Datatable.xlsx
+++ b/Datatable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{A32D0E0B-57B9-432C-91A5-0E0258F5B732}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C6F9A-642C-4038-8E39-C86296CDB5F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneralUserData" r:id="rId1" sheetId="3"/>
-    <sheet name="RegisterUserData" r:id="rId2" sheetId="1"/>
+    <sheet name="GeneralUserData" sheetId="3" r:id="rId1"/>
+    <sheet name="RegisterUserData" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>userName</t>
   </si>
@@ -158,44 +158,22 @@
     <t>remediation_title</t>
   </si>
   <si>
-    <t>Test Remediation_3</t>
-  </si>
-  <si>
     <t>satyabrata1</t>
   </si>
   <si>
-    <t>Test Compliance Automation_15</t>
-  </si>
-  <si>
     <t>Weekly</t>
   </si>
   <si>
-    <t>Test Compliance Automation_16</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_17</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_18</t>
-  </si>
-  <si>
-    <t>Test Remediation_4</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_19</t>
-  </si>
-  <si>
-    <t>Test Remediation_5</t>
-  </si>
-  <si>
-    <t>Test Compliance Automation_20</t>
+    <t>Test Compliance Automation_23</t>
+  </si>
+  <si>
+    <t>Test Remediation_6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -252,24 +230,24 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -286,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -324,7 +302,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -359,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,21 +431,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -484,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -536,15 +514,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909CC171-D78C-4477-B6FF-08FD546D8D9C}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -552,8 +530,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +568,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -598,47 +576,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
-    <hyperlink r:id="rId2" ref="B3" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
-    <hyperlink r:id="rId3" ref="B4" xr:uid="{CC9AAD5E-1F86-4392-B490-315E4F6803F9}"/>
-    <hyperlink r:id="rId4" ref="B5" xr:uid="{AFCDA0B5-BDCE-4639-AC0D-85D633698000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7F151F8E-B072-4530-AD3D-51D054FBCF76}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4202090D-45A6-4FFB-9D06-1AFA2F3126F5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{CC9AAD5E-1F86-4392-B490-315E4F6803F9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{AFCDA0B5-BDCE-4639-AC0D-85D633698000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.3046875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.921875" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -726,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -762,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
         <v>38</v>
@@ -771,10 +749,10 @@
         <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>